--- a/src/Excel/entregable3/CambioT24aCastigo.xlsx
+++ b/src/Excel/entregable3/CambioT24aCastigo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088908BC-F98B-4CC9-8A71-E9956A066497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162D026F-6A55-4A26-97CF-5085EA10ABA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>usuario</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>16 abr. 2023, 19:49:09</t>
+  </si>
+  <si>
+    <t>AAACT23123JGHLXG4</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 10:31:46</t>
   </si>
 </sst>
 </file>
@@ -411,7 +420,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.90625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
@@ -453,13 +462,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/CambioT24aCastigo.xlsx
+++ b/src/Excel/entregable3/CambioT24aCastigo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162D026F-6A55-4A26-97CF-5085EA10ABA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A446FC7-B507-4236-B8D0-ADAAEFCADB1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -48,41 +48,37 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>arreglo</t>
-  </si>
-  <si>
-    <t>AA2202174GJD</t>
-  </si>
-  <si>
-    <t>producto</t>
-  </si>
-  <si>
     <t>LD011015</t>
   </si>
   <si>
+    <t>producto_destino</t>
+  </si>
+  <si>
+    <t>tipo_producto_origen</t>
+  </si>
+  <si>
+    <t>arreglo_origen</t>
+  </si>
+  <si>
+    <t>AA221195MZPW</t>
+  </si>
+  <si>
+    <t>PRESTAMO SENIOR</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>16 abr. 2023, 19:49:09</t>
-  </si>
-  <si>
-    <t>AAACT23123JGHLXG4</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 10:31:46</t>
+    <t>3 may. 2023, 11:57:36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,13 +97,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFE49E9E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,46 +405,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.36328125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.90625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -456,19 +456,22 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/CambioT24aCastigo.xlsx
+++ b/src/Excel/entregable3/CambioT24aCastigo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A446FC7-B507-4236-B8D0-ADAAEFCADB1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E04A7BA-528E-47C8-981A-C9C93557E333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>usuario</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>3 may. 2023, 11:57:36</t>
+  </si>
+  <si>
+    <t>usuario Ap</t>
+  </si>
+  <si>
+    <t>SCISNEROSS1</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -418,11 +424,12 @@
     <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -438,17 +445,20 @@
       <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -464,13 +474,16 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/src/Excel/entregable3/CambioT24aCastigo.xlsx
+++ b/src/Excel/entregable3/CambioT24aCastigo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E04A7BA-528E-47C8-981A-C9C93557E333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97789875-8926-44C1-8F70-790868BF252C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/Excel/entregable3/CambioT24aCastigo.xlsx
+++ b/src/Excel/entregable3/CambioT24aCastigo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97789875-8926-44C1-8F70-790868BF252C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F70AB54-85C3-4819-970C-ADAA0F670282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>usuario</t>
   </si>
@@ -60,9 +60,6 @@
     <t>arreglo_origen</t>
   </si>
   <si>
-    <t>AA221195MZPW</t>
-  </si>
-  <si>
     <t>PRESTAMO SENIOR</t>
   </si>
   <si>
@@ -79,12 +76,31 @@
   </si>
   <si>
     <t>SCISNEROSS1</t>
+  </si>
+  <si>
+    <t>AA19146S52DS</t>
+  </si>
+  <si>
+    <t>AAACT23144MBSVV5R</t>
+  </si>
+  <si>
+    <t>24 may. 2023, 18:20:33</t>
+  </si>
+  <si>
+    <t>AAACT231453W2KQV4</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>25 may. 2023, 11:21:41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,19 +430,19 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.7265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.6328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -446,7 +462,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -466,25 +482,25 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/CambioT24aCastigo.xlsx
+++ b/src/Excel/entregable3/CambioT24aCastigo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>usuario</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>25 may. 2023, 11:21:41</t>
+  </si>
+  <si>
+    <t>26 may. 2023, 11:10:04</t>
+  </si>
+  <si>
+    <t>26 may. 2023, 11:11:29</t>
   </si>
 </sst>
 </file>
@@ -494,13 +500,13 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/CambioT24aCastigo.xlsx
+++ b/src/Excel/entregable3/CambioT24aCastigo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F70AB54-85C3-4819-970C-ADAA0F670282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9033FD96-8C28-4865-A93D-CDFF6F3F5168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>usuario</t>
   </si>
@@ -33,9 +33,6 @@
     <t>contraseña</t>
   </si>
   <si>
-    <t>SCISNEROSC1</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -60,53 +57,25 @@
     <t>arreglo_origen</t>
   </si>
   <si>
-    <t>PRESTAMO SENIOR</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>3 may. 2023, 11:57:36</t>
-  </si>
-  <si>
     <t>usuario Ap</t>
   </si>
   <si>
-    <t>SCISNEROSS1</t>
-  </si>
-  <si>
-    <t>AA19146S52DS</t>
-  </si>
-  <si>
-    <t>AAACT23144MBSVV5R</t>
-  </si>
-  <si>
-    <t>24 may. 2023, 18:20:33</t>
-  </si>
-  <si>
-    <t>AAACT231453W2KQV4</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>25 may. 2023, 11:21:41</t>
-  </si>
-  <si>
-    <t>26 may. 2023, 11:10:04</t>
-  </si>
-  <si>
-    <t>26 may. 2023, 11:11:29</t>
+    <t>btorres</t>
+  </si>
+  <si>
+    <t>ACHACALTANAS1</t>
+  </si>
+  <si>
+    <t>AA21180FH5N8</t>
+  </si>
+  <si>
+    <t>PRESTAMO YA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,19 +405,19 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.7265625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.6328125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.81640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -459,54 +428,45 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/CambioT24aCastigo.xlsx
+++ b/src/Excel/entregable3/CambioT24aCastigo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9033FD96-8C28-4865-A93D-CDFF6F3F5168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5F438C-4050-412D-A076-213AF22C449D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,10 +66,10 @@
     <t>ACHACALTANAS1</t>
   </si>
   <si>
-    <t>AA21180FH5N8</t>
-  </si>
-  <si>
     <t>PRESTAMO YA</t>
+  </si>
+  <si>
+    <t>AA2321917BB4</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,10 +457,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>

--- a/src/Excel/entregable3/CambioT24aCastigo.xlsx
+++ b/src/Excel/entregable3/CambioT24aCastigo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5F438C-4050-412D-A076-213AF22C449D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC96005A-7CEF-4A66-91AA-44D2D4DA5AAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,12 +405,12 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1" collapsed="1"/>
